--- a/ELearningWebsite/src/main/webapp/static/file/excel/baiNgheId=8.xlsx
+++ b/ELearningWebsite/src/main/webapp/static/file/excel/baiNgheId=8.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\file\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
   <si>
     <t>option1</t>
   </si>
@@ -48,70 +53,105 @@
     <t>images</t>
   </si>
   <si>
-    <t>The man is buying a ticket at the bus station</t>
-  </si>
-  <si>
-    <t>The man is boarding the bus</t>
-  </si>
-  <si>
-    <t>The man is handing his baggage to a conductor</t>
-  </si>
-  <si>
-    <t>The man is checking the bus timetable</t>
-  </si>
-  <si>
-    <t>The worker is preparing to dig the earth</t>
-  </si>
-  <si>
-    <t>There are a lot of leaves on the road</t>
-  </si>
-  <si>
-    <t>The road is being resurfaced</t>
-  </si>
-  <si>
-    <t>The man is driving the truck down the hill</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
-    <t>Neither of the phones is being used</t>
-  </si>
-  <si>
-    <t>The two phones are different in size from each other</t>
-  </si>
-  <si>
-    <t>The telephones are being repaired</t>
-  </si>
-  <si>
-    <t>Each telephone is in a separate booth</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
-    <t xml:space="preserve">Correct-answer:C
-A.The worker is preparing to dig the earth
-B.There are a lot of leaves on the road
-C.The road is being resurfaced
-D.The man is driving the truck down the hill
+    <t>I’d say not for another month.</t>
+  </si>
+  <si>
+    <t>Our boss is ready to take off.</t>
+  </si>
+  <si>
+    <t>I don’t have any more work.</t>
+  </si>
+  <si>
+    <t>Not that bad.</t>
+  </si>
+  <si>
+    <t>Only for a couple of days</t>
+  </si>
+  <si>
+    <t>About 5 hours ago.</t>
+  </si>
+  <si>
+    <t>At 1:45 p.m.</t>
+  </si>
+  <si>
+    <t>At the train station across the street.</t>
+  </si>
+  <si>
+    <t>The train doesn’t stop there.</t>
+  </si>
+  <si>
+    <t>I’d take a taxi</t>
+  </si>
+  <si>
+    <t>It’s about an hour by train</t>
+  </si>
+  <si>
+    <t>You’ll need to check the departure time</t>
+  </si>
+  <si>
+    <t>Yes, they’ve been sent</t>
+  </si>
+  <si>
+    <t>This afternoon</t>
+  </si>
+  <si>
+    <t>It’s for my colleague</t>
+  </si>
+  <si>
+    <t>I highly recommend it</t>
+  </si>
+  <si>
+    <t>No, I haven’t sent him a bill yet</t>
+  </si>
+  <si>
+    <t>Either would be fine</t>
+  </si>
+  <si>
+    <t>Question : What’s the fastest way to get to the station?
+A.I’d take a taxi 
+B.It’s about an hour by train 
+C.You’ll need to check the departure time</t>
+  </si>
+  <si>
+    <t>Question : When can you finish drawing up the schedule?
+A.Yes, they’ve been sent 
+B.This afternoon 
+C.It’s for my colleague</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question : Would you prefer to sit in the corner, or near the window?
+A.I highly recommend it 
+B.No, I haven’t sent him a bill yet 
+C.Either would be fine
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Correct-answer:A
-A.Neither of the phones is being used
-B.The two phones are different in size from each other
-C.The telephones are being repaired
-D.Each telephone is in a separate booth
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Correct-answer:B
-A.The man is buying a ticket at the bus station
-B.The man is boarding the bus
-C.The man is handing his baggage to a conductor
-D.The man is checking the bus timetable
-</t>
+    <t xml:space="preserve">
+Correct-answer:B
+Question : How long are you going to be away from your home?
+A.Not that bad. 
+B.Only for a couple of days 
+C.About 5 hours ago.</t>
+  </si>
+  <si>
+    <t>Correct-answer:B
+Question : Where can I catch the next train before two o’clock?
+A.At 1:45 p.m. 
+B.At the train station across the street. 
+C.The train doesn’t stop there.</t>
+  </si>
+  <si>
+    <t>Correct-answer:A
+Question : When would you like to recruit new employees?
+A.I’d say not for another month. 
+B.Our boss is ready to take off. 
+C.I don’t have any more work.</t>
   </si>
 </sst>
 </file>
@@ -138,7 +178,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF222222"/>
       <name val="Roboto"/>
     </font>
   </fonts>
@@ -150,7 +190,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -173,17 +213,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -191,13 +220,13 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -208,145 +237,11 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>485775</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9286875" y="647700"/>
-          <a:ext cx="2019300" cy="1028700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1085849</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>390525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9286875" y="1733549"/>
-          <a:ext cx="2028825" cy="1247776"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1304924</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1990725</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>124284</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9286875" y="3038474"/>
-          <a:ext cx="1990725" cy="1276810"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -392,7 +287,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -427,7 +322,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -636,11 +531,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,106 +578,297 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="3"/>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="1" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="B2" s="1"/>
+      <c r="C2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>6</v>
       </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
